--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjohnston/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjohnston/Desktop/AstroCode/VariableStarAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28D199-32AD-9C42-A147-63F7E5A34A19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2678E8-B91D-874C-BC94-4235CC5579EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{A1B00D4B-6F44-D34B-B39C-9647066E41B9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{A1B00D4B-6F44-D34B-B39C-9647066E41B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Vector Linear" sheetId="1" r:id="rId1"/>
     <sheet name="Vector UCR" sheetId="2" r:id="rId2"/>
     <sheet name="LINEAR" sheetId="5" r:id="rId3"/>
-    <sheet name="UCR" sheetId="6" r:id="rId4"/>
-    <sheet name="Matrix Linear" sheetId="3" r:id="rId5"/>
-    <sheet name="Matrix UCR" sheetId="4" r:id="rId6"/>
+    <sheet name="Delta" sheetId="7" r:id="rId4"/>
+    <sheet name="UCR" sheetId="6" r:id="rId5"/>
+    <sheet name="Matrix Linear" sheetId="3" r:id="rId6"/>
+    <sheet name="Matrix UCR" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="29">
   <si>
     <t>tau</t>
   </si>
@@ -1448,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5731C8D-0B28-A741-AC52-DB1FEE499383}">
   <dimension ref="B1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5216,11 +5217,907 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3652B26-D9E5-6545-BA70-4BB3321EA8DD}">
+  <dimension ref="B3:S34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1074</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <f>SUM(C4:H4)</f>
+        <v>1090</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9">
+        <f>C4-C13</f>
+        <v>-7</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" ref="N4:R4" si="0">D4-D13</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="S4" s="10">
+        <f>SUM(M4:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I8" si="1">SUM(C5:H5)</f>
+        <v>27</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5:M8" si="2">C5-C14</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" ref="N5:N8" si="3">D5-D14</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O8" si="4">E5-E14</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5:P8" si="5">F5-F14</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" ref="Q5:Q8" si="6">G5-G14</f>
+        <v>-2</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5:R8" si="7">H5-H14</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5:S8" si="8">SUM(M5:R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>104</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>345</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>837</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>874</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11">
+        <f>SUM(C4:C8)</f>
+        <v>1103</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:G9" si="9">SUM(D4:D8)</f>
+        <v>24</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="9"/>
+        <v>364</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="9"/>
+        <v>869</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="11">
+        <f>SUM(M4:M8)</f>
+        <v>-5</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" ref="N9:Q9" si="10">SUM(N4:N8)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1081</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(C13:H13)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" ref="I14:I17" si="11">SUM(C14:H14)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>108</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>28</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>343</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="11"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <v>832</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="11"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11">
+        <f>SUM(C13:C17)</f>
+        <v>1108</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:G18" si="12">SUM(D13:D17)</f>
+        <v>23</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="12"/>
+        <v>867</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>3</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2298</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(C24:F24)</f>
+        <v>2305</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="5">
+        <f>C24-C31</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" ref="N24:O24" si="13">D24-D31</f>
+        <v>-3</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>SUM(M24:P24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4450</v>
+      </c>
+      <c r="E25" s="5">
+        <v>300</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:G26" si="14">SUM(C25:F25)</f>
+        <v>4754</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ref="M25:M26" si="15">C25-C32</f>
+        <v>-13</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" ref="N25:N26" si="16">D25-D32</f>
+        <v>-171</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25:O26" si="17">E25-E32</f>
+        <v>184</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" ref="Q25:Q26" si="18">SUM(M25:P25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>467</v>
+      </c>
+      <c r="E26" s="5">
+        <v>707</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="14"/>
+        <v>1177</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="17"/>
+        <v>-87</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="7">
+        <f>SUM(C24:C26)</f>
+        <v>2305</v>
+      </c>
+      <c r="D27" s="7">
+        <f>SUM(D24:D26)</f>
+        <v>4923</v>
+      </c>
+      <c r="E27" s="7">
+        <f>SUM(E24:E26)</f>
+        <v>1007</v>
+      </c>
+      <c r="M27" s="7">
+        <f>SUM(M24:M26)</f>
+        <v>-16</v>
+      </c>
+      <c r="N27" s="7">
+        <f>SUM(N24:N26)</f>
+        <v>-82</v>
+      </c>
+      <c r="O27" s="7">
+        <f>SUM(O24:O26)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2296</v>
+      </c>
+      <c r="D31" s="5">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f>SUM(C31:F31)</f>
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4621</v>
+      </c>
+      <c r="E32" s="5">
+        <v>116</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" ref="G32:G33" si="19">SUM(C32:F32)</f>
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
+        <v>375</v>
+      </c>
+      <c r="E33" s="5">
+        <v>794</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="19"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="7">
+        <f>SUM(C31:C33)</f>
+        <v>2321</v>
+      </c>
+      <c r="D34" s="7">
+        <f>SUM(D31:D33)</f>
+        <v>5005</v>
+      </c>
+      <c r="E34" s="7">
+        <f>SUM(E31:E33)</f>
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A15F3D-B542-9B4A-8788-39687A4D389B}">
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7209,7 +8106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44152C8-1FAD-2448-ADA9-4DD378985E31}">
   <dimension ref="C1:J13"/>
   <sheetViews>
@@ -7553,7 +8450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB8C1F-EABF-2D4C-BEA8-1D629D213C13}">
   <dimension ref="C1:J13"/>
   <sheetViews>
